--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,64 +675,79 @@
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +790,20 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +846,20 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +902,20 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +932,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +980,20 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1036,20 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -992,29 +1071,41 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,23 +1133,35 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1175,12 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1087,10 +1194,10 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1102,7 +1209,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1111,13 +1218,25 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1131,10 +1250,10 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1146,7 +1265,7 @@
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1155,13 +1274,25 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1309,12 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-800</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,51 +1452,63 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1000</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
@@ -1346,16 +1517,28 @@
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1581,20 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,34 +1637,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1000</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -1478,42 +1685,54 @@
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1000</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
@@ -1522,16 +1741,28 @@
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1805,20 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1861,20 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1917,20 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1973,20 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,69 +1994,81 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1000</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
@@ -1786,16 +2077,28 @@
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,34 +2141,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1000</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
@@ -1874,65 +2189,89 @@
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2288,12 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2310,12 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2358,20 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2414,20 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2470,20 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,19 +2526,31 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2187,8 +2582,20 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2638,20 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2694,20 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2750,20 @@
       <c r="P48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="S48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2806,20 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2862,20 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2918,20 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2481,22 +2960,34 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +3030,20 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2569,22 +3072,34 @@
         <v>5500</v>
       </c>
       <c r="L54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="M54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="N54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="O54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="P54" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="S54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T54" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +3116,12 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,96 +3138,124 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>7900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="T57" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2733,114 +3280,150 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H60" s="3">
         <v>12200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>12100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>12100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>10200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>9900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>9600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>9100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>9100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>9000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>8900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>400</v>
+      </c>
+      <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
+        <v>300</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2877,14 +3460,26 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3522,20 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3578,20 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3634,76 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>12300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>10900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>10600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>9900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>9300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>9200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>9100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3720,12 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3768,20 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3824,20 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3880,20 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3936,76 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-39200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-39000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-39100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-38100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-37700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-37400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-37100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-36700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-36000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-35900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-35800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-35700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +4048,20 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +4104,20 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +4160,76 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H76" s="3">
         <v>-6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-6800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-5500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,83 +4272,107 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1000</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
@@ -3602,16 +4381,28 @@
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4419,12 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4467,20 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4523,20 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4579,20 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4635,20 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4691,20 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4747,20 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3907,37 +4774,49 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4833,12 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4881,20 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4937,20 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4993,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +5049,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +5079,12 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +5127,20 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +5183,20 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +5239,20 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +5295,20 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,37 +5322,49 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +5407,20 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,76 +678,91 @@
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +817,20 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +885,20 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +953,20 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +987,12 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1047,20 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1115,20 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1071,11 +1150,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1083,52 +1162,64 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1145,23 +1236,35 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1282,12 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1301,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1206,10 +1313,10 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1221,7 +1328,7 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1230,13 +1337,25 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1369,7 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1262,10 +1381,10 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1277,7 +1396,7 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
@@ -1286,13 +1405,25 @@
         <v>-200</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1444,12 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1331,46 +1466,58 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,57 +1531,69 @@
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-800</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1464,63 +1623,75 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1000</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
@@ -1529,16 +1700,28 @@
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1776,20 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,46 +1844,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1000</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
@@ -1697,16 +1904,28 @@
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,37 +1933,37 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1000</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
@@ -1753,16 +1972,28 @@
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +2048,20 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2116,20 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2184,20 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2252,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2003,46 +2282,58 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,37 +2341,37 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1000</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
@@ -2089,16 +2380,28 @@
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2456,20 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,37 +2477,37 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1000</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
@@ -2201,77 +2516,101 @@
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2631,12 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,22 +2657,26 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2370,8 +2717,20 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2785,20 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2853,20 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,19 +2921,31 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2594,22 +2989,34 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2650,8 +3057,20 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +3125,20 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +3193,20 @@
       <c r="T48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="X48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3261,20 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3329,20 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3397,20 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2972,22 +3451,34 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,22 +3533,34 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E54" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H54" s="3">
         <v>5500</v>
@@ -3084,22 +3587,34 @@
         <v>5500</v>
       </c>
       <c r="P54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="Q54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="R54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="S54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="T54" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="W54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="X54" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3635,12 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,128 +3661,156 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>8200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>8000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>7000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>6700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>6400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>6100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>5900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="T57" s="3">
         <v>5600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="U57" s="3">
         <v>5300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="V57" s="3">
         <v>5000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="W57" s="3">
         <v>4800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="X57" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="T58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="U58" s="3">
         <v>2200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="V58" s="3">
         <v>2200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="W58" s="3">
         <v>2100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3271,14 +3818,14 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3292,138 +3839,174 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H60" s="3">
         <v>13800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>13400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>13100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>12600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>12200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>12100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>12100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>11100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>10700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>10200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>9900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>9600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>9100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>9100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>9000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="W60" s="3">
         <v>8900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="X60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="K61" s="3">
         <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
       </c>
       <c r="Q61" s="3">
+        <v>400</v>
+      </c>
+      <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
+        <v>300</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3472,14 +4055,26 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +4129,20 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4197,20 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4265,88 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H66" s="3">
         <v>13800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>13400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>13100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>12700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>12300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>10900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>10600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>10300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>9900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>9300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>9300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>9200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="W66" s="3">
         <v>9100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="X66" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4367,12 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4427,20 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4495,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4563,20 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4631,88 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-40600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-40200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-39900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-39400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-39200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-39000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-39100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-38100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-37700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-37400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-37100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-36700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-35900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-35800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>-35700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4767,20 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4835,20 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4903,88 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H76" s="3">
         <v>-8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-8000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-7600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-7200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-6900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-6900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-5800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-5500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>-5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>-3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="W76" s="3">
         <v>-3500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="X76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +5039,93 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,37 +5133,37 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1000</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
@@ -4393,16 +5172,28 @@
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5214,12 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +5274,20 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5342,20 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5410,20 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5478,20 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5546,20 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5614,20 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,10 +5635,10 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4786,37 +5653,49 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5716,12 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5776,20 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5844,20 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5912,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5980,20 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +6014,12 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +6074,20 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +6142,20 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +6210,20 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,22 +6278,34 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5334,37 +6317,49 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,22 +6414,34 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5473,6 +6480,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +836,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,35 +1180,35 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1177,26 +1216,32 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,11 +1266,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1248,11 +1293,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1301,25 +1354,25 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1328,13 +1381,13 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1349,13 +1402,19 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1369,25 +1428,25 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1396,13 +1455,13 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1417,13 +1476,19 @@
         <v>-200</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,14 +1524,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1478,20 +1545,20 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1499,25 +1566,31 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,72 +1598,78 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1000</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-800</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1599,43 +1678,43 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1644,7 +1723,7 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-400</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,96 +1953,108 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-400</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-400</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
@@ -1954,46 +2063,52 @@
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,14 +2412,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2294,20 +2433,20 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2315,45 +2454,51 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-400</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
@@ -2362,46 +2507,52 @@
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,28 +2619,34 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-400</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
@@ -2498,119 +2655,131 @@
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2832,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,19 +2843,19 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2729,8 +2902,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3198,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,19 +3213,19 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3069,8 +3272,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3346,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3463,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3790,14 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,19 +3805,19 @@
         <v>5600</v>
       </c>
       <c r="E54" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F54" s="3">
         <v>5600</v>
       </c>
       <c r="G54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="H54" s="3">
-        <v>5500</v>
-      </c>
       <c r="I54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J54" s="3">
         <v>5500</v>
@@ -3599,10 +3850,10 @@
         <v>5500</v>
       </c>
       <c r="T54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="U54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="V54" s="3">
         <v>5600</v>
@@ -3613,8 +3864,14 @@
       <c r="X54" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,173 +3924,187 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>5300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>3800</v>
       </c>
       <c r="S58" s="3">
         <v>3800</v>
       </c>
       <c r="T58" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="U58" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="V58" s="3">
         <v>2200</v>
       </c>
       <c r="W58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3851,94 +4124,106 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F60" s="3">
         <v>15600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>9100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -3967,10 +4252,10 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -3982,31 +4267,37 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4067,14 +4358,20 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F66" s="3">
         <v>15600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-43100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-42700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-42200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-41800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-40600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-40200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-39900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-39400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-39200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-39000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-39100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-38100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-37700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-37400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-37100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-36700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-36000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-35900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-35800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-35700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-9100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-8700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-8300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-7600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-6800</v>
       </c>
       <c r="N76" s="3">
         <v>-6900</v>
       </c>
       <c r="O76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-3500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,101 +5428,113 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-400</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
@@ -5154,46 +5543,52 @@
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5641,7 +6074,7 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5650,22 +6083,22 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5674,7 +6107,7 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -5683,19 +6116,25 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,46 +6775,52 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6338,7 +6829,7 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -6347,19 +6838,25 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,19 +6923,25 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
@@ -6447,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6492,6 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1198,20 +1218,20 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1222,8 +1242,8 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1231,17 +1251,20 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,8 +1295,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1299,8 +1322,8 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1360,10 +1387,10 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1372,10 +1399,10 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1387,10 +1414,10 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1408,13 +1435,16 @@
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1434,10 +1464,10 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1446,10 +1476,10 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1461,10 +1491,10 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1482,13 +1512,16 @@
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,17 +1558,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1551,17 +1585,17 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1572,11 +1606,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1584,13 +1618,16 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,22 +1635,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
@@ -1622,34 +1659,34 @@
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-200</v>
       </c>
       <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-800</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
@@ -1658,21 +1695,24 @@
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1684,7 +1724,7 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1693,10 +1733,10 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1705,10 +1745,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1717,7 +1757,7 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1729,27 +1769,30 @@
         <v>200</v>
       </c>
       <c r="X22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
@@ -1758,46 +1801,46 @@
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
@@ -1806,13 +1849,16 @@
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,19 +2008,22 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
@@ -1980,46 +2032,46 @@
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
@@ -2028,72 +2080,75 @@
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
@@ -2102,13 +2157,16 @@
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,17 +2482,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2439,17 +2509,17 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2460,11 +2530,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2472,72 +2542,75 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
@@ -2546,13 +2619,16 @@
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,67 +2701,70 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
@@ -2694,92 +2773,98 @@
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2849,16 +2936,16 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3219,16 +3321,16 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3708,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3811,16 +3937,16 @@
         <v>5600</v>
       </c>
       <c r="G54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H54" s="3">
         <v>5700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5600</v>
       </c>
       <c r="I54" s="3">
         <v>5600</v>
       </c>
       <c r="J54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K54" s="3">
         <v>5500</v>
@@ -3856,7 +3982,7 @@
         <v>5500</v>
       </c>
       <c r="V54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="W54" s="3">
         <v>5600</v>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,132 +4056,136 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11100</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>10700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>7900</v>
       </c>
       <c r="O57" s="3">
         <v>7900</v>
       </c>
       <c r="P57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q57" s="3">
         <v>8000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
         <v>5000</v>
       </c>
       <c r="F58" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G58" s="3">
         <v>4900</v>
       </c>
       <c r="H58" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I58" s="3">
         <v>4700</v>
       </c>
       <c r="J58" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K58" s="3">
         <v>4500</v>
       </c>
       <c r="L58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="M58" s="3">
         <v>4400</v>
       </c>
       <c r="N58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O58" s="3">
         <v>4300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4200</v>
       </c>
       <c r="P58" s="3">
         <v>4200</v>
       </c>
       <c r="Q58" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="R58" s="3">
         <v>4100</v>
       </c>
       <c r="S58" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="T58" s="3">
         <v>3800</v>
@@ -4060,7 +4194,7 @@
         <v>3800</v>
       </c>
       <c r="V58" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="W58" s="3">
         <v>2200</v>
@@ -4069,36 +4203,39 @@
         <v>2200</v>
       </c>
       <c r="Y58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>9900</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -4106,8 +4243,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4130,100 +4267,106 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>16500</v>
       </c>
       <c r="E60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F60" s="3">
         <v>15700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>12100</v>
       </c>
       <c r="P60" s="3">
         <v>12100</v>
       </c>
       <c r="Q60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="R60" s="3">
         <v>11100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>9100</v>
       </c>
       <c r="W60" s="3">
         <v>9100</v>
       </c>
       <c r="X60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>9000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4246,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -4258,7 +4401,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -4273,54 +4416,57 @@
         <v>200</v>
       </c>
       <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
         <v>400</v>
-      </c>
-      <c r="T61" s="3">
-        <v>300</v>
       </c>
       <c r="U61" s="3">
         <v>300</v>
       </c>
       <c r="V61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W61" s="3">
         <v>200</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
       </c>
       <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4364,14 +4510,17 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E66" s="3">
         <v>16100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>9300</v>
       </c>
       <c r="W66" s="3">
         <v>9300</v>
       </c>
       <c r="X66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>9200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-43400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-43100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-42200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-40600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-37700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-37100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-36700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-36000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-35900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-35800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-35700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,146 +5623,152 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
@@ -5582,13 +5777,16 @@
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,13 +6273,16 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6080,14 +6297,14 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -6095,22 +6312,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -6122,7 +6339,7 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6131,10 +6348,13 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,25 +7024,28 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -6808,7 +7054,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6817,22 +7063,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -6844,7 +7090,7 @@
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -6853,10 +7099,13 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6941,20 +7193,20 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1221,20 +1241,20 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1254,17 +1274,20 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-200</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1321,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1325,8 +1348,8 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1390,10 +1417,10 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1402,10 +1429,10 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1417,10 +1444,10 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1438,13 +1465,16 @@
         <v>200</v>
       </c>
       <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1467,10 +1497,10 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1479,10 +1509,10 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1494,10 +1524,10 @@
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
@@ -1515,13 +1545,16 @@
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,17 +1595,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1588,17 +1622,17 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1609,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1621,13 +1655,16 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1638,22 +1675,22 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
@@ -1662,34 +1699,34 @@
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-800</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
@@ -1698,13 +1735,16 @@
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,10 +1752,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1727,7 +1767,7 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1736,10 +1776,10 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1748,10 +1788,10 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1760,7 +1800,7 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1772,30 +1812,33 @@
         <v>200</v>
       </c>
       <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
@@ -1804,46 +1847,46 @@
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
@@ -1852,13 +1895,16 @@
         <v>-300</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,22 +2060,25 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
@@ -2035,46 +2087,46 @@
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
@@ -2083,75 +2135,78 @@
         <v>-300</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
@@ -2160,13 +2215,16 @@
         <v>-300</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,17 +2555,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2512,17 +2582,17 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2533,11 +2603,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2545,75 +2615,78 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-300</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
@@ -2622,13 +2695,16 @@
         <v>-300</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,70 +2780,73 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-300</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
@@ -2776,95 +2855,101 @@
         <v>-300</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2939,16 +3026,16 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3324,16 +3426,16 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3831,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,13 +4045,16 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E54" s="3">
         <v>5600</v>
@@ -3940,16 +4066,16 @@
         <v>5600</v>
       </c>
       <c r="H54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I54" s="3">
         <v>5700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5600</v>
       </c>
       <c r="J54" s="3">
         <v>5600</v>
       </c>
       <c r="K54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="L54" s="3">
         <v>5500</v>
@@ -3985,7 +4111,7 @@
         <v>5500</v>
       </c>
       <c r="W54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="X54" s="3">
         <v>5600</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>11800</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
       </c>
       <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
         <v>10700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>7900</v>
       </c>
       <c r="P57" s="3">
         <v>7900</v>
       </c>
       <c r="Q57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="R57" s="3">
         <v>8000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,52 +4277,52 @@
         <v>5100</v>
       </c>
       <c r="E58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F58" s="3">
         <v>5000</v>
       </c>
       <c r="G58" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H58" s="3">
         <v>4900</v>
       </c>
       <c r="I58" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J58" s="3">
         <v>4700</v>
       </c>
       <c r="K58" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="L58" s="3">
         <v>4500</v>
       </c>
       <c r="M58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="N58" s="3">
         <v>4400</v>
       </c>
       <c r="O58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P58" s="3">
         <v>4300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>4200</v>
       </c>
       <c r="Q58" s="3">
         <v>4200</v>
       </c>
       <c r="R58" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="S58" s="3">
         <v>4100</v>
       </c>
       <c r="T58" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="U58" s="3">
         <v>3800</v>
@@ -4197,7 +4331,7 @@
         <v>3800</v>
       </c>
       <c r="W58" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="X58" s="3">
         <v>2200</v>
@@ -4206,39 +4340,42 @@
         <v>2200</v>
       </c>
       <c r="Z58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA58" s="3">
         <v>2100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
         <v>9900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -4246,8 +4383,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4270,103 +4407,109 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2000</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>16500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>12100</v>
       </c>
       <c r="Q60" s="3">
         <v>12100</v>
       </c>
       <c r="R60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="S60" s="3">
         <v>11100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9600</v>
-      </c>
-      <c r="W60" s="3">
-        <v>9100</v>
       </c>
       <c r="X60" s="3">
         <v>9100</v>
       </c>
       <c r="Y60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>9000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4392,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -4404,7 +4547,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
@@ -4419,31 +4562,34 @@
         <v>200</v>
       </c>
       <c r="T61" s="3">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
         <v>400</v>
-      </c>
-      <c r="U61" s="3">
-        <v>300</v>
       </c>
       <c r="V61" s="3">
         <v>300</v>
       </c>
       <c r="W61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X61" s="3">
         <v>200</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z61" s="3">
         <v>100</v>
       </c>
       <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4468,8 +4614,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4513,14 +4659,17 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E66" s="3">
         <v>16500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9900</v>
-      </c>
-      <c r="W66" s="3">
-        <v>9300</v>
       </c>
       <c r="X66" s="3">
         <v>9300</v>
       </c>
       <c r="Y66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Z66" s="3">
         <v>9200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-43900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-43400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-43100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-42700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-42200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-37400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-37100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-36700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-35900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-35800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-35700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,152 +5815,158 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-300</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
@@ -5780,13 +5975,16 @@
         <v>-300</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -6300,14 +6517,14 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -6315,22 +6532,22 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -6342,7 +6559,7 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6351,10 +6568,13 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,19 +7282,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -7057,7 +7303,7 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7066,22 +7312,22 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
@@ -7093,7 +7339,7 @@
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7102,10 +7348,13 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7196,20 +7448,20 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -1828,8 +1828,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
@@ -4194,7 +4194,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11800</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
@@ -4353,8 +4353,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>10200</v>
       </c>
       <c r="E59" s="3">
         <v>9900</v>
@@ -4433,8 +4433,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>16900</v>
       </c>
       <c r="E60" s="3">
         <v>16500</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,32 +1274,32 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1268,26 +1307,32 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-200</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1324,11 +1369,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1351,11 +1396,11 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,7 +1455,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1420,25 +1473,25 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1447,13 +1500,13 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
@@ -1468,13 +1521,19 @@
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1500,25 +1559,25 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1527,13 +1586,13 @@
         <v>-200</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
@@ -1548,13 +1607,19 @@
         <v>-200</v>
       </c>
       <c r="AA18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,20 +1665,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1625,20 +1692,20 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1646,25 +1713,31 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,96 +1745,102 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1000</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-800</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1770,43 +1849,43 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
@@ -1815,7 +1894,7 @@
         <v>200</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="3">
         <v>200</v>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-300</v>
       </c>
       <c r="Z23" s="3">
         <v>-300</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AB23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,120 +2160,132 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-300</v>
       </c>
       <c r="Z26" s="3">
         <v>-300</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AB26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
@@ -2185,46 +2294,52 @@
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-300</v>
       </c>
       <c r="Z27" s="3">
         <v>-300</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AB27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,20 +2697,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2585,20 +2724,20 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2606,57 +2745,63 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
@@ -2665,46 +2810,52 @@
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-300</v>
       </c>
       <c r="Z33" s="3">
         <v>-300</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AB33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,40 +2934,46 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
@@ -2825,131 +2982,143 @@
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-300</v>
       </c>
       <c r="Z35" s="3">
         <v>-300</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AB35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,13 +3179,15 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -3029,19 +3202,19 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,13 +3605,19 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3429,19 +3632,19 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3954,10 +4193,10 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4293,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,10 +4308,10 @@
         <v>5500</v>
       </c>
       <c r="E54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="G54" s="3">
         <v>5600</v>
@@ -4069,19 +4320,19 @@
         <v>5600</v>
       </c>
       <c r="I54" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="J54" s="3">
         <v>5600</v>
       </c>
       <c r="K54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="L54" s="3">
-        <v>5500</v>
-      </c>
       <c r="M54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="N54" s="3">
         <v>5500</v>
@@ -4114,10 +4365,10 @@
         <v>5500</v>
       </c>
       <c r="X54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="Y54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="Z54" s="3">
         <v>5600</v>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,209 +4447,223 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>7800</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>10400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>8200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>8000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>7000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>6100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>5600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>5300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>5000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>4800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E58" s="3">
         <v>5100</v>
       </c>
       <c r="F58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>3800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>3800</v>
       </c>
       <c r="W58" s="3">
         <v>3800</v>
       </c>
       <c r="X58" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="Y58" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="Z58" s="3">
         <v>2200</v>
       </c>
       <c r="AA58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AC58" s="3">
         <v>2100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10200</v>
+        <v>5100</v>
       </c>
       <c r="E59" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G59" s="3">
         <v>9900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4410,106 +4683,118 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2000</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F60" s="3">
         <v>16900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>14200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>13400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>13100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>12600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>12200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>10700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>9100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>9100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>9000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>8900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4538,10 +4823,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -4550,10 +4835,10 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
@@ -4565,31 +4850,37 @@
         <v>200</v>
       </c>
       <c r="U61" s="3">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
+        <v>200</v>
+      </c>
+      <c r="W61" s="3">
         <v>400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4617,11 +4908,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4662,14 +4953,20 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
+      <c r="AA62" s="3">
+        <v>0</v>
       </c>
       <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F66" s="3">
         <v>16900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>12300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>11300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>10300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>9300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>9200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>9100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-44700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-44300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-43900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-43400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-43100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-42700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-42200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-41800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-40600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-40200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-39900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-39400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-39000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-39100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-38100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-37700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-37400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-37100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-36700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-35900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-35800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-35700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-11000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-9100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-8700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-8300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-8000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-7200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-6800</v>
       </c>
       <c r="R76" s="3">
         <v>-6900</v>
       </c>
       <c r="S76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="U76" s="3">
         <v>-5800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-5500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-5200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-4800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,125 +6195,137 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
@@ -5945,46 +6334,52 @@
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-300</v>
       </c>
       <c r="Z81" s="3">
         <v>-300</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AB81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,22 +6920,28 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -6520,7 +6953,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6529,22 +6962,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6553,7 +6986,7 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -6562,19 +6995,25 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,46 +7776,46 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7333,7 +7824,7 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
@@ -7342,19 +7833,25 @@
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7451,13 +7954,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
@@ -7466,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1280,8 +1300,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1289,20 +1309,20 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1313,8 +1333,8 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1322,17 +1342,20 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-200</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,8 +1398,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1402,8 +1425,8 @@
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,10 +1482,10 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1479,10 +1506,10 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1491,10 +1518,10 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1506,10 +1533,10 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
@@ -1527,13 +1554,16 @@
         <v>200</v>
       </c>
       <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,10 +1571,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1565,10 +1595,10 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1577,10 +1607,10 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1592,10 +1622,10 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
@@ -1613,13 +1643,16 @@
         <v>-200</v>
       </c>
       <c r="AC18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1671,17 +1705,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1698,17 +1732,17 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1719,11 +1753,11 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1731,13 +1765,16 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>300</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1757,22 +1794,22 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
@@ -1781,34 +1818,34 @@
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-200</v>
       </c>
       <c r="X21" s="3">
         <v>-200</v>
       </c>
       <c r="Y21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
@@ -1817,21 +1854,24 @@
         <v>-100</v>
       </c>
       <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1840,10 +1880,10 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1855,7 +1895,7 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1864,10 +1904,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1876,10 +1916,10 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1888,7 +1928,7 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>200</v>
@@ -1900,39 +1940,42 @@
         <v>200</v>
       </c>
       <c r="AB22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC22" s="3">
         <v>100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
@@ -1941,46 +1984,46 @@
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-300</v>
       </c>
       <c r="AA23" s="3">
         <v>-300</v>
@@ -1989,13 +2032,16 @@
         <v>-300</v>
       </c>
       <c r="AC23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,31 +2215,34 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
@@ -2199,46 +2251,46 @@
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-300</v>
       </c>
       <c r="AA26" s="3">
         <v>-300</v>
@@ -2247,84 +2299,87 @@
         <v>-300</v>
       </c>
       <c r="AC26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-300</v>
       </c>
       <c r="AA27" s="3">
         <v>-300</v>
@@ -2333,13 +2388,16 @@
         <v>-300</v>
       </c>
       <c r="AC27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2703,17 +2773,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2730,17 +2800,17 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2751,11 +2821,11 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2763,84 +2833,87 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-300</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-300</v>
       </c>
       <c r="AA33" s="3">
         <v>-300</v>
@@ -2849,13 +2922,16 @@
         <v>-300</v>
       </c>
       <c r="AC33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,79 +3016,82 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-300</v>
       </c>
       <c r="AA35" s="3">
         <v>-300</v>
@@ -3021,104 +3100,110 @@
         <v>-300</v>
       </c>
       <c r="AC35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3190,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -3208,16 +3295,16 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3638,16 +3740,16 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4199,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4314,7 +4440,7 @@
         <v>5500</v>
       </c>
       <c r="G54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H54" s="3">
         <v>5600</v>
@@ -4326,16 +4452,16 @@
         <v>5600</v>
       </c>
       <c r="K54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L54" s="3">
         <v>5700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5600</v>
       </c>
       <c r="M54" s="3">
         <v>5600</v>
       </c>
       <c r="N54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="O54" s="3">
         <v>5500</v>
@@ -4371,7 +4497,7 @@
         <v>5500</v>
       </c>
       <c r="Z54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="AA54" s="3">
         <v>5600</v>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7800</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>1500</v>
       </c>
       <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
         <v>10700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>7900</v>
       </c>
       <c r="S57" s="3">
         <v>7900</v>
       </c>
       <c r="T57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="U57" s="3">
         <v>8000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4544,7 +4678,7 @@
         <v>5200</v>
       </c>
       <c r="E58" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F58" s="3">
         <v>5100</v>
@@ -4553,52 +4687,52 @@
         <v>5100</v>
       </c>
       <c r="H58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I58" s="3">
         <v>5000</v>
       </c>
       <c r="J58" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K58" s="3">
         <v>4900</v>
       </c>
       <c r="L58" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="M58" s="3">
         <v>4700</v>
       </c>
       <c r="N58" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="O58" s="3">
         <v>4500</v>
       </c>
       <c r="P58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="Q58" s="3">
         <v>4400</v>
       </c>
       <c r="R58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S58" s="3">
         <v>4300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>4200</v>
       </c>
       <c r="T58" s="3">
         <v>4200</v>
       </c>
       <c r="U58" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="V58" s="3">
         <v>4100</v>
       </c>
       <c r="W58" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="X58" s="3">
         <v>3800</v>
@@ -4607,7 +4741,7 @@
         <v>3800</v>
       </c>
       <c r="Z58" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="AA58" s="3">
         <v>2200</v>
@@ -4616,48 +4750,51 @@
         <v>2200</v>
       </c>
       <c r="AC58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AD58" s="3">
         <v>2100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5100</v>
+        <v>11700</v>
       </c>
       <c r="E59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F59" s="3">
         <v>11000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -4665,8 +4802,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4689,112 +4826,118 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2000</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>18400</v>
       </c>
       <c r="E60" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F60" s="3">
         <v>17500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>12100</v>
       </c>
       <c r="T60" s="3">
         <v>12100</v>
       </c>
       <c r="U60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="V60" s="3">
         <v>11100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9600</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>9100</v>
       </c>
       <c r="AA60" s="3">
         <v>9100</v>
       </c>
       <c r="AB60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AC60" s="3">
         <v>9000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4829,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -4841,7 +4984,7 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>200</v>
@@ -4856,31 +4999,34 @@
         <v>200</v>
       </c>
       <c r="W61" s="3">
+        <v>200</v>
+      </c>
+      <c r="X61" s="3">
         <v>400</v>
-      </c>
-      <c r="X61" s="3">
-        <v>300</v>
       </c>
       <c r="Y61" s="3">
         <v>300</v>
       </c>
       <c r="Z61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA61" s="3">
         <v>200</v>
       </c>
       <c r="AB61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC61" s="3">
         <v>100</v>
       </c>
       <c r="AD61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4914,8 +5060,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4959,14 +5105,17 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD62" s="3">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E66" s="3">
         <v>18000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9900</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>9300</v>
       </c>
       <c r="AA66" s="3">
         <v>9300</v>
       </c>
       <c r="AB66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AC66" s="3">
         <v>9200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-43900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-43400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-38100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-37700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-37400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-37100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-36700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-35900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-35800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-35700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,170 +6390,176 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-300</v>
       </c>
       <c r="AA81" s="3">
         <v>-300</v>
@@ -6373,13 +6568,16 @@
         <v>-300</v>
       </c>
       <c r="AC81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,17 +7140,20 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -6944,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -6959,14 +7176,14 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -6974,22 +7191,22 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -7001,7 +7218,7 @@
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
@@ -7010,10 +7227,13 @@
         <v>0</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7782,19 +8028,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -7803,7 +8049,7 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -7812,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -7839,7 +8085,7 @@
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7848,10 +8094,13 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7960,20 +8212,20 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DHCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>DHCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1303,8 +1323,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1312,20 +1332,20 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1336,8 +1356,8 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1345,17 +1365,20 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD14" s="3">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
         <v>-200</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1401,8 +1424,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1428,8 +1451,8 @@
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,10 +1512,10 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1509,10 +1536,10 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1521,10 +1548,10 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1536,10 +1563,10 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>100</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
@@ -1557,13 +1584,16 @@
         <v>200</v>
       </c>
       <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE17" s="3">
         <v>100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,10 +1604,10 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1598,10 +1628,10 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1610,10 +1640,10 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1625,10 +1655,10 @@
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
@@ -1646,13 +1676,16 @@
         <v>-200</v>
       </c>
       <c r="AD18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1708,17 +1742,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1735,17 +1769,17 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1756,11 +1790,11 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1768,13 +1802,16 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>300</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1785,10 +1822,10 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
@@ -1797,22 +1834,22 @@
         <v>-200</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
@@ -1821,34 +1858,34 @@
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-200</v>
       </c>
       <c r="Y21" s="3">
         <v>-200</v>
       </c>
       <c r="Z21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
       </c>
       <c r="AB21" s="3">
         <v>-100</v>
@@ -1857,13 +1894,16 @@
         <v>-100</v>
       </c>
       <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1871,10 +1911,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1883,10 +1923,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1898,7 +1938,7 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1907,10 +1947,10 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1919,10 +1959,10 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1931,7 +1971,7 @@
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>200</v>
@@ -1943,16 +1983,19 @@
         <v>200</v>
       </c>
       <c r="AC22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>200</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1960,25 +2003,25 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
@@ -1987,46 +2030,46 @@
         <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-300</v>
       </c>
       <c r="AB23" s="3">
         <v>-300</v>
@@ -2035,13 +2078,16 @@
         <v>-300</v>
       </c>
       <c r="AD23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2227,25 +2279,25 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
@@ -2254,46 +2306,46 @@
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-300</v>
       </c>
       <c r="AB26" s="3">
         <v>-300</v>
@@ -2302,13 +2354,16 @@
         <v>-300</v>
       </c>
       <c r="AD26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2316,73 +2371,73 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-300</v>
       </c>
       <c r="AB27" s="3">
         <v>-300</v>
@@ -2391,13 +2446,16 @@
         <v>-300</v>
       </c>
       <c r="AD27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2776,17 +2846,17 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2803,17 +2873,17 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2824,11 +2894,11 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2836,13 +2906,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>-300</v>
       </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2850,73 +2923,73 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-300</v>
       </c>
       <c r="AB33" s="3">
         <v>-300</v>
@@ -2925,13 +2998,16 @@
         <v>-300</v>
       </c>
       <c r="AD33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3028,73 +3107,73 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-300</v>
       </c>
       <c r="AB35" s="3">
         <v>-300</v>
@@ -3103,107 +3182,113 @@
         <v>-300</v>
       </c>
       <c r="AD35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3280,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -3298,16 +3385,16 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3725,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3743,16 +3845,16 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4322,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4443,7 +4569,7 @@
         <v>5500</v>
       </c>
       <c r="H54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="I54" s="3">
         <v>5600</v>
@@ -4455,16 +4581,16 @@
         <v>5600</v>
       </c>
       <c r="L54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M54" s="3">
         <v>5700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5600</v>
       </c>
       <c r="N54" s="3">
         <v>5600</v>
       </c>
       <c r="O54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="P54" s="3">
         <v>5500</v>
@@ -4500,7 +4626,7 @@
         <v>5500</v>
       </c>
       <c r="AA54" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="AB54" s="3">
         <v>5600</v>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>5600</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4710,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
       </c>
       <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
         <v>10700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>7900</v>
       </c>
       <c r="T57" s="3">
         <v>7900</v>
       </c>
       <c r="U57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="V57" s="3">
         <v>8000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>5000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4681,7 +4815,7 @@
         <v>5200</v>
       </c>
       <c r="F58" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G58" s="3">
         <v>5100</v>
@@ -4690,52 +4824,52 @@
         <v>5100</v>
       </c>
       <c r="I58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J58" s="3">
         <v>5000</v>
       </c>
       <c r="K58" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="L58" s="3">
         <v>4900</v>
       </c>
       <c r="M58" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="N58" s="3">
         <v>4700</v>
       </c>
       <c r="O58" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="P58" s="3">
         <v>4500</v>
       </c>
       <c r="Q58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="R58" s="3">
         <v>4400</v>
       </c>
       <c r="S58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T58" s="3">
         <v>4300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>4200</v>
       </c>
       <c r="U58" s="3">
         <v>4200</v>
       </c>
       <c r="V58" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="W58" s="3">
         <v>4100</v>
       </c>
       <c r="X58" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="Y58" s="3">
         <v>3800</v>
@@ -4744,7 +4878,7 @@
         <v>3800</v>
       </c>
       <c r="AA58" s="3">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="AB58" s="3">
         <v>2200</v>
@@ -4753,51 +4887,54 @@
         <v>2200</v>
       </c>
       <c r="AD58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AE58" s="3">
         <v>2100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -4805,8 +4942,8 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4829,115 +4966,121 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2000</v>
       </c>
-      <c r="AE59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E60" s="3">
         <v>18400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>12100</v>
       </c>
       <c r="U60" s="3">
         <v>12100</v>
       </c>
       <c r="V60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="W60" s="3">
         <v>11100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9600</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>9100</v>
       </c>
       <c r="AB60" s="3">
         <v>9100</v>
       </c>
       <c r="AC60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AD60" s="3">
         <v>9000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>8900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4975,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -4987,7 +5130,7 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>200</v>
@@ -5002,36 +5145,39 @@
         <v>200</v>
       </c>
       <c r="X61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y61" s="3">
         <v>400</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>300</v>
       </c>
       <c r="Z61" s="3">
         <v>300</v>
       </c>
       <c r="AA61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB61" s="3">
         <v>200</v>
       </c>
       <c r="AC61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD61" s="3">
         <v>100</v>
       </c>
       <c r="AE61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -5063,8 +5209,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -5108,14 +5254,17 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE62" s="3">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E66" s="3">
         <v>18400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9900</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>9300</v>
       </c>
       <c r="AB66" s="3">
         <v>9300</v>
       </c>
       <c r="AC66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AD66" s="3">
         <v>9200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>9100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-43900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-41800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-39100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-37700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-37400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-37100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-36700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-35900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-35800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-35700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-35300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6496,73 +6691,73 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-300</v>
       </c>
       <c r="AB81" s="3">
         <v>-300</v>
@@ -6571,13 +6766,16 @@
         <v>-300</v>
       </c>
       <c r="AD81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,20 +7357,23 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -7164,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -7179,14 +7396,14 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -7194,22 +7411,22 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -7221,7 +7438,7 @@
         <v>-100</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
@@ -7230,10 +7447,13 @@
         <v>0</v>
       </c>
       <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,13 +8253,16 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -8031,19 +8277,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -8052,7 +8298,7 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -8061,22 +8307,22 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
@@ -8088,7 +8334,7 @@
         <v>100</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
@@ -8097,10 +8343,13 @@
         <v>0</v>
       </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8215,20 +8467,20 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
